--- a/src/SiUpin.WebAPI/Data/ParameterJawaban.xlsx
+++ b/src/SiUpin.WebAPI/Data/ParameterJawaban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Projects\SiUpin\src\SiUpin.WebAPI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B84C6F1-C194-4B98-867B-3077F0105DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A703B6-B7D3-4CE9-B01E-F2F6808FA044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{A4349AA1-D5AB-4C09-B0CB-DDB790D624A0}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23970" windowHeight="13020" xr2:uid="{A4349AA1-D5AB-4C09-B0CB-DDB790D624A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>Halal</t>
   </si>
   <si>
-    <t>NKV</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>id_indikator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKV </t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -295,6 +295,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -304,11 +317,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD8536D-1C93-4212-97D6-94C54AEFFABD}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1249,7 +1262,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,7 +1273,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,10 +1281,10 @@
         <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,10 +1292,10 @@
         <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,10 +1303,10 @@
         <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,10 +1314,10 @@
         <v>15</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1325,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1347,10 @@
         <v>15</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1356,10 +1369,10 @@
         <v>16</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,10 +1380,10 @@
         <v>16</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1391,10 @@
         <v>16</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="C69" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,10 +1413,10 @@
         <v>16</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1424,7 @@
         <v>17</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="3">
         <v>5</v>
@@ -1422,7 +1435,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="3">
         <v>4</v>
@@ -1433,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -1444,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
@@ -1455,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
